--- a/OHLCV_INFO.xlsx
+++ b/OHLCV_INFO.xlsx
@@ -736,13 +736,13 @@
         <v>56400000</v>
       </c>
       <c r="E8" t="n">
-        <v>56833000</v>
+        <v>56940000</v>
       </c>
       <c r="F8" t="n">
-        <v>1880.59907258</v>
+        <v>2005.49116467</v>
       </c>
       <c r="G8" t="n">
-        <v>106831802905.1066</v>
+        <v>113931602716.8059</v>
       </c>
       <c r="H8" t="n">
         <v>423500</v>
